--- a/medicine/Enfance/Franz_Albert_Jüttner/Franz_Albert_Jüttner.xlsx
+++ b/medicine/Enfance/Franz_Albert_Jüttner/Franz_Albert_Jüttner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Franz_Albert_J%C3%BCttner</t>
+          <t>Franz_Albert_Jüttner</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Albert Jüttner est né le 23 avril 1865 à Lindenstadt près de Birnbaum, en province de Posnanie, et mort le 1er mai 1926 à Wolfenbüttel en État libre de Brunswick. C'est un illustrateur allemand, connu comme caricaturiste : il a collaboré à la revue satirique Kladderadatsch.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Franz_Albert_J%C3%BCttner</t>
+          <t>Franz_Albert_Jüttner</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Albert Jüttner est le fils d'un tonnelier. Après ses études, il travaille comme dessinateur à Birnbaum. En 1880 il rejoint son frère aîné à Berlin.
 Il travaille comme décorateur dans une entreprise de lithographie puis comme élève du peintre historique 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Franz_Albert_J%C3%BCttner</t>
+          <t>Franz_Albert_Jüttner</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses premiers dessins sont publiés dans une revue locale de son village.
 Après une année avec le magazine berlinois Les Guêpes berlinoises (Berliner Wespen), il se tourne définitivement vers la caricature socio-politique dans la presse.
@@ -557,10 +573,45 @@
 			Le train de la mort
 			Un monstre redoutable
 			Le destin de l'Arménie
-Illustrations d'albums pour la jeunesse
-Entre 1905 et 1910, il illustre de nombreux ouvrages pour la jeunesse, notamment le plus célèbre, Blanche-Neige.
-Bake Cakes! Children love rhymes with drawings by Franz Jüttner[1].
-1912, Er, Sie, Es., l'album de Franz  Jüttner, Berlin (Dr. Eysler. Ludwig Bate &amp; Kurt Meyer-Rotermund[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Franz_Albert_Jüttner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Franz_Albert_J%C3%BCttner</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations d'albums pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1905 et 1910, il illustre de nombreux ouvrages pour la jeunesse, notamment le plus célèbre, Blanche-Neige.
+Bake Cakes! Children love rhymes with drawings by Franz Jüttner.
+1912, Er, Sie, Es., l'album de Franz  Jüttner, Berlin (Dr. Eysler. Ludwig Bate &amp; Kurt Meyer-Rotermund.
 1923, Das Nachtwächterbüchlein (le Petit livre du Veilleur de nuit).
 Der kleine Jäger (Le Petit Chasseur) en collaboration avec Julius Schlattmann.
 Les huit illustrations, minutieuses, de Blanche-Neige et leur iconographie ont été traitées comme de véritables tableaux dont la composition a été empruntée à des modèles européens religieux ou profanes de différentes périodes, avec références artistiques aux maîtres du passé, toujours traités avec l'effet miroir. L'inspiration japonisante est présente, sans toutefois aller jusqu'à la stylisation de l'Art nouveau.
